--- a/20180126_SmartCut/Meeting/20190111 Meeting/20190107 story drifts.xlsx
+++ b/20180126_SmartCut/Meeting/20190111 Meeting/20190107 story drifts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="125">
   <si>
     <t>TABLE:  Story Drifts</t>
   </si>
@@ -292,6 +292,114 @@
   </si>
   <si>
     <t>2F</t>
+  </si>
+  <si>
+    <t>TAP010-5.1 Max</t>
+  </si>
+  <si>
+    <t>TAP010-5.1 Min</t>
+  </si>
+  <si>
+    <t>TAP010-5.2 Max</t>
+  </si>
+  <si>
+    <t>TAP010-5.2 Min</t>
+  </si>
+  <si>
+    <t>TAP010-5.3 Max</t>
+  </si>
+  <si>
+    <t>TAP010-5.3 Min</t>
+  </si>
+  <si>
+    <t>TAP010-5.4 Max</t>
+  </si>
+  <si>
+    <t>TAP010-5.4 Min</t>
+  </si>
+  <si>
+    <t>TAP010-5.5 Max</t>
+  </si>
+  <si>
+    <t>TAP010-5.5 Min</t>
+  </si>
+  <si>
+    <t>TAP010-5.6 Max</t>
+  </si>
+  <si>
+    <t>TAP010-5.6 Min</t>
+  </si>
+  <si>
+    <t>TAP010-5.7 Max</t>
+  </si>
+  <si>
+    <t>TAP010-5.7 Min</t>
+  </si>
+  <si>
+    <t>TAP010-5.8 Max</t>
+  </si>
+  <si>
+    <t>TAP010-5.8 Min</t>
+  </si>
+  <si>
+    <t>TAP010-5.9 Max</t>
+  </si>
+  <si>
+    <t>TAP010-5.9 Min</t>
+  </si>
+  <si>
+    <t>TAP010-6.1 Max</t>
+  </si>
+  <si>
+    <t>TAP010-6.1 Min</t>
+  </si>
+  <si>
+    <t>TAP010-6.2 Max</t>
+  </si>
+  <si>
+    <t>TAP010-6.2 Min</t>
+  </si>
+  <si>
+    <t>TAP010-6.3 Max</t>
+  </si>
+  <si>
+    <t>TAP010-6.3 Min</t>
+  </si>
+  <si>
+    <t>TAP010-6.4 Max</t>
+  </si>
+  <si>
+    <t>TAP010-6.4 Min</t>
+  </si>
+  <si>
+    <t>TAP010-6.5 Max</t>
+  </si>
+  <si>
+    <t>TAP010-6.5 Min</t>
+  </si>
+  <si>
+    <t>TAP010-6.6 Max</t>
+  </si>
+  <si>
+    <t>TAP010-6.6 Min</t>
+  </si>
+  <si>
+    <t>TAP010-6.7 Max</t>
+  </si>
+  <si>
+    <t>TAP010-6.7 Min</t>
+  </si>
+  <si>
+    <t>TAP010-6.8 Max</t>
+  </si>
+  <si>
+    <t>TAP010-6.8 Min</t>
+  </si>
+  <si>
+    <t>TAP010-6.9 Max</t>
+  </si>
+  <si>
+    <t>TAP010-6.9 Min</t>
   </si>
 </sst>
 </file>
@@ -712,9 +820,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:H339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -842,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>2.4000000000000001E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -946,7 +1056,7 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>7.3999999999999996E-5</v>
+        <v>7.2999999999999999E-5</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1908,7 +2018,7 @@
         <v>6</v>
       </c>
       <c r="D47">
-        <v>8.3799999999999999E-4</v>
+        <v>8.3900000000000001E-4</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2376,7 +2486,7 @@
         <v>6</v>
       </c>
       <c r="D65">
-        <v>1.7619999999999999E-3</v>
+        <v>1.761E-3</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -2506,7 +2616,7 @@
         <v>6</v>
       </c>
       <c r="D70">
-        <v>80.312423999999993</v>
+        <v>79.681161000000003</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -2532,7 +2642,7 @@
         <v>6</v>
       </c>
       <c r="D71">
-        <v>9.5560000000000003E-3</v>
+        <v>9.5300000000000003E-3</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -2558,7 +2668,7 @@
         <v>6</v>
       </c>
       <c r="D72">
-        <v>4.7419999999999997E-3</v>
+        <v>4.7429999999999998E-3</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -2610,7 +2720,7 @@
         <v>6</v>
       </c>
       <c r="D74">
-        <v>8.9110000000000005E-3</v>
+        <v>8.9099999999999995E-3</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -2636,7 +2746,7 @@
         <v>6</v>
       </c>
       <c r="D75">
-        <v>44.534449000000002</v>
+        <v>44.688153999999997</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -2662,7 +2772,7 @@
         <v>6</v>
       </c>
       <c r="D76">
-        <v>68.072778</v>
+        <v>68.397411000000005</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -2688,7 +2798,7 @@
         <v>6</v>
       </c>
       <c r="D77">
-        <v>3.0582999999999999E-2</v>
+        <v>3.0605E-2</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -2714,7 +2824,7 @@
         <v>6</v>
       </c>
       <c r="D78">
-        <v>3.6981E-2</v>
+        <v>3.6991999999999997E-2</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -2740,7 +2850,7 @@
         <v>6</v>
       </c>
       <c r="D79">
-        <v>75.061887999999996</v>
+        <v>69.532953000000006</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -2757,16 +2867,16 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1.2620000000000001E-3</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -2778,21 +2888,21 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>7.9850000000000008E-3</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -2804,21 +2914,21 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
       </c>
       <c r="D82">
-        <v>2.4000000000000001E-5</v>
+        <v>1.2719999999999999E-3</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -2830,21 +2940,21 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
       </c>
       <c r="D83">
-        <v>4.1999999999999998E-5</v>
+        <v>8.1189999999999995E-3</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2856,21 +2966,21 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
       </c>
       <c r="D84">
-        <v>4.6999999999999997E-5</v>
+        <v>1.2769999999999999E-3</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -2882,21 +2992,21 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
       </c>
       <c r="D85">
-        <v>8.2999999999999998E-5</v>
+        <v>7.9520000000000007E-3</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -2908,21 +3018,21 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
       </c>
       <c r="D86">
-        <v>7.1000000000000005E-5</v>
+        <v>1.2780000000000001E-3</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -2934,21 +3044,21 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
       </c>
       <c r="D87">
-        <v>1.25E-4</v>
+        <v>7.8449999999999995E-3</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -2960,21 +3070,21 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
       </c>
       <c r="D88">
-        <v>9.5000000000000005E-5</v>
+        <v>1.8649999999999999E-3</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -2986,21 +3096,21 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
       </c>
       <c r="D89">
-        <v>1.66E-4</v>
+        <v>7.5700000000000003E-3</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -3012,21 +3122,21 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
       </c>
       <c r="D90">
-        <v>1.1900000000000001E-4</v>
+        <v>2.3089999999999999E-3</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -3038,21 +3148,21 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
       </c>
       <c r="D91">
-        <v>2.0799999999999999E-4</v>
+        <v>8.4519999999999994E-3</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -3064,21 +3174,21 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
       </c>
       <c r="D92">
-        <v>1.4200000000000001E-4</v>
+        <v>1.74E-3</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -3090,21 +3200,21 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
       </c>
       <c r="D93">
-        <v>2.5000000000000001E-4</v>
+        <v>8.5100000000000002E-3</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -3116,21 +3226,21 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94">
-        <v>1.66E-4</v>
+        <v>1.8550000000000001E-3</v>
       </c>
       <c r="E94">
         <v>2</v>
@@ -3142,21 +3252,21 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
       </c>
       <c r="D95">
-        <v>2.9100000000000003E-4</v>
+        <v>8.9269999999999992E-3</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -3168,21 +3278,21 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
       </c>
       <c r="D96">
-        <v>1.9000000000000001E-4</v>
+        <v>2.0460000000000001E-3</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -3194,21 +3304,21 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
       </c>
       <c r="D97">
-        <v>3.3300000000000002E-4</v>
+        <v>9.2390000000000007E-3</v>
       </c>
       <c r="E97">
         <v>2</v>
@@ -3220,21 +3330,21 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
       </c>
       <c r="D98">
-        <v>2.14E-4</v>
+        <v>80.126347999999993</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -3246,21 +3356,21 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
       </c>
       <c r="D99">
-        <v>3.7399999999999998E-4</v>
+        <v>9.7230000000000007E-3</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -3272,21 +3382,21 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
       </c>
       <c r="D100">
-        <v>2.3699999999999999E-4</v>
+        <v>80.725153000000006</v>
       </c>
       <c r="E100">
         <v>2</v>
@@ -3298,21 +3408,21 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
       </c>
       <c r="D101">
-        <v>4.1599999999999997E-4</v>
+        <v>1.0385E-2</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -3324,21 +3434,21 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
       </c>
       <c r="D102">
-        <v>2.61E-4</v>
+        <v>2.7169999999999998E-3</v>
       </c>
       <c r="E102">
         <v>2</v>
@@ -3350,21 +3460,21 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
       </c>
       <c r="D103">
-        <v>4.5800000000000002E-4</v>
+        <v>1.0928999999999999E-2</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -3376,21 +3486,21 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
       </c>
       <c r="D104">
-        <v>2.8499999999999999E-4</v>
+        <v>3.5980000000000001E-3</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -3402,21 +3512,21 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
       </c>
       <c r="D105">
-        <v>4.9899999999999999E-4</v>
+        <v>1.1514999999999999E-2</v>
       </c>
       <c r="E105">
         <v>2</v>
@@ -3428,21 +3538,21 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
       </c>
       <c r="D106">
-        <v>3.0899999999999998E-4</v>
+        <v>80.203413999999995</v>
       </c>
       <c r="E106">
         <v>2</v>
@@ -3454,21 +3564,21 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
       </c>
       <c r="D107">
-        <v>5.4100000000000003E-4</v>
+        <v>1.1585E-2</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -3480,21 +3590,21 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
       </c>
       <c r="D108">
-        <v>3.3199999999999999E-4</v>
+        <v>3.3769999999999998E-3</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -3506,21 +3616,21 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
       </c>
       <c r="D109">
-        <v>5.8299999999999997E-4</v>
+        <v>1.5259E-2</v>
       </c>
       <c r="E109">
         <v>2</v>
@@ -3532,21 +3642,21 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
       </c>
       <c r="D110">
-        <v>3.5599999999999998E-4</v>
+        <v>3.6219999999999998E-3</v>
       </c>
       <c r="E110">
         <v>2</v>
@@ -3558,21 +3668,21 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
       </c>
       <c r="D111">
-        <v>6.2399999999999999E-4</v>
+        <v>1.6147000000000002E-2</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -3584,21 +3694,21 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
       </c>
       <c r="D112">
-        <v>3.8000000000000002E-4</v>
+        <v>3.8570000000000002E-3</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -3610,21 +3720,21 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
       </c>
       <c r="D113">
-        <v>6.6600000000000003E-4</v>
+        <v>1.7146999999999999E-2</v>
       </c>
       <c r="E113">
         <v>2</v>
@@ -3636,21 +3746,21 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
       </c>
       <c r="D114">
-        <v>4.0299999999999998E-4</v>
+        <v>4.1799999999999997E-3</v>
       </c>
       <c r="E114">
         <v>2</v>
@@ -3662,21 +3772,21 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
       </c>
       <c r="D115">
-        <v>7.0699999999999995E-4</v>
+        <v>1.6952999999999999E-2</v>
       </c>
       <c r="E115">
         <v>2</v>
@@ -3688,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -3696,13 +3806,13 @@
         <v>87</v>
       </c>
       <c r="B116" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
       </c>
       <c r="D116">
-        <v>4.2700000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -3722,13 +3832,13 @@
         <v>87</v>
       </c>
       <c r="B117" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
       </c>
       <c r="D117">
-        <v>7.4899999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="E117">
         <v>2</v>
@@ -3748,13 +3858,13 @@
         <v>87</v>
       </c>
       <c r="B118" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
       </c>
       <c r="D118">
-        <v>4.5100000000000001E-4</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -3774,13 +3884,13 @@
         <v>87</v>
       </c>
       <c r="B119" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
       </c>
       <c r="D119">
-        <v>7.8600000000000002E-4</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -3800,13 +3910,13 @@
         <v>87</v>
       </c>
       <c r="B120" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
       </c>
       <c r="D120">
-        <v>4.75E-4</v>
+        <v>4.6999999999999997E-5</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -3826,13 +3936,13 @@
         <v>87</v>
       </c>
       <c r="B121" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
       </c>
       <c r="D121">
-        <v>8.2399999999999997E-4</v>
+        <v>8.2999999999999998E-5</v>
       </c>
       <c r="E121">
         <v>2</v>
@@ -3852,13 +3962,13 @@
         <v>87</v>
       </c>
       <c r="B122" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
       </c>
       <c r="D122">
-        <v>4.9799999999999996E-4</v>
+        <v>7.1000000000000005E-5</v>
       </c>
       <c r="E122">
         <v>2</v>
@@ -3878,13 +3988,13 @@
         <v>87</v>
       </c>
       <c r="B123" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
       </c>
       <c r="D123">
-        <v>8.5999999999999998E-4</v>
+        <v>1.25E-4</v>
       </c>
       <c r="E123">
         <v>2</v>
@@ -3904,13 +4014,13 @@
         <v>87</v>
       </c>
       <c r="B124" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C124" t="s">
         <v>6</v>
       </c>
       <c r="D124">
-        <v>5.22E-4</v>
+        <v>9.5000000000000005E-5</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -3930,13 +4040,13 @@
         <v>87</v>
       </c>
       <c r="B125" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
       </c>
       <c r="D125">
-        <v>8.9599999999999999E-4</v>
+        <v>1.66E-4</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -3956,13 +4066,13 @@
         <v>87</v>
       </c>
       <c r="B126" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
       </c>
       <c r="D126">
-        <v>5.4600000000000004E-4</v>
+        <v>1.1900000000000001E-4</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -3982,13 +4092,13 @@
         <v>87</v>
       </c>
       <c r="B127" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
       </c>
       <c r="D127">
-        <v>9.3999999999999997E-4</v>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -4008,13 +4118,13 @@
         <v>87</v>
       </c>
       <c r="B128" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
       </c>
       <c r="D128">
-        <v>5.6999999999999998E-4</v>
+        <v>1.4200000000000001E-4</v>
       </c>
       <c r="E128">
         <v>2</v>
@@ -4034,13 +4144,13 @@
         <v>87</v>
       </c>
       <c r="B129" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
       </c>
       <c r="D129">
-        <v>9.8999999999999999E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="E129">
         <v>2</v>
@@ -4060,13 +4170,13 @@
         <v>87</v>
       </c>
       <c r="B130" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
       </c>
       <c r="D130">
-        <v>5.9299999999999999E-4</v>
+        <v>1.66E-4</v>
       </c>
       <c r="E130">
         <v>2</v>
@@ -4086,13 +4196,13 @@
         <v>87</v>
       </c>
       <c r="B131" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
       </c>
       <c r="D131">
-        <v>1.078E-3</v>
+        <v>2.9100000000000003E-4</v>
       </c>
       <c r="E131">
         <v>2</v>
@@ -4112,13 +4222,13 @@
         <v>87</v>
       </c>
       <c r="B132" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
       </c>
       <c r="D132">
-        <v>6.1700000000000004E-4</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="E132">
         <v>2</v>
@@ -4138,13 +4248,13 @@
         <v>87</v>
       </c>
       <c r="B133" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C133" t="s">
         <v>6</v>
       </c>
       <c r="D133">
-        <v>1.183E-3</v>
+        <v>3.3300000000000002E-4</v>
       </c>
       <c r="E133">
         <v>2</v>
@@ -4164,13 +4274,13 @@
         <v>87</v>
       </c>
       <c r="B134" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C134" t="s">
         <v>6</v>
       </c>
       <c r="D134">
-        <v>6.4099999999999997E-4</v>
+        <v>2.14E-4</v>
       </c>
       <c r="E134">
         <v>2</v>
@@ -4190,13 +4300,13 @@
         <v>87</v>
       </c>
       <c r="B135" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
       </c>
       <c r="D135">
-        <v>1.292E-3</v>
+        <v>3.7399999999999998E-4</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -4216,13 +4326,13 @@
         <v>87</v>
       </c>
       <c r="B136" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="C136" t="s">
         <v>6</v>
       </c>
       <c r="D136">
-        <v>6.6500000000000001E-4</v>
+        <v>2.3699999999999999E-4</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -4242,13 +4352,13 @@
         <v>87</v>
       </c>
       <c r="B137" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C137" t="s">
         <v>6</v>
       </c>
       <c r="D137">
-        <v>1.395E-3</v>
+        <v>4.1599999999999997E-4</v>
       </c>
       <c r="E137">
         <v>2</v>
@@ -4268,13 +4378,13 @@
         <v>87</v>
       </c>
       <c r="B138" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C138" t="s">
         <v>6</v>
       </c>
       <c r="D138">
-        <v>6.8800000000000003E-4</v>
+        <v>2.61E-4</v>
       </c>
       <c r="E138">
         <v>2</v>
@@ -4294,13 +4404,13 @@
         <v>87</v>
       </c>
       <c r="B139" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C139" t="s">
         <v>6</v>
       </c>
       <c r="D139">
-        <v>1.4970000000000001E-3</v>
+        <v>4.5800000000000002E-4</v>
       </c>
       <c r="E139">
         <v>2</v>
@@ -4320,13 +4430,13 @@
         <v>87</v>
       </c>
       <c r="B140" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
       </c>
       <c r="D140">
-        <v>7.1199999999999996E-4</v>
+        <v>2.8499999999999999E-4</v>
       </c>
       <c r="E140">
         <v>2</v>
@@ -4346,13 +4456,13 @@
         <v>87</v>
       </c>
       <c r="B141" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C141" t="s">
         <v>6</v>
       </c>
       <c r="D141">
-        <v>1.606E-3</v>
+        <v>4.9899999999999999E-4</v>
       </c>
       <c r="E141">
         <v>2</v>
@@ -4372,13 +4482,13 @@
         <v>87</v>
       </c>
       <c r="B142" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
       </c>
       <c r="D142">
-        <v>1.4109999999999999E-3</v>
+        <v>3.0899999999999998E-4</v>
       </c>
       <c r="E142">
         <v>2</v>
@@ -4398,13 +4508,13 @@
         <v>87</v>
       </c>
       <c r="B143" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C143" t="s">
         <v>6</v>
       </c>
       <c r="D143">
-        <v>4.0870000000000004E-3</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="E143">
         <v>2</v>
@@ -4424,13 +4534,13 @@
         <v>87</v>
       </c>
       <c r="B144" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C144" t="s">
         <v>6</v>
       </c>
       <c r="D144">
-        <v>1.3849999999999999E-3</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -4450,13 +4560,13 @@
         <v>87</v>
       </c>
       <c r="B145" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C145" t="s">
         <v>6</v>
       </c>
       <c r="D145">
-        <v>8.2719999999999998E-3</v>
+        <v>5.8299999999999997E-4</v>
       </c>
       <c r="E145">
         <v>2</v>
@@ -4476,13 +4586,13 @@
         <v>87</v>
       </c>
       <c r="B146" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
       </c>
       <c r="D146">
-        <v>206.23881600000001</v>
+        <v>3.5599999999999998E-4</v>
       </c>
       <c r="E146">
         <v>2</v>
@@ -4502,13 +4612,13 @@
         <v>87</v>
       </c>
       <c r="B147" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
       </c>
       <c r="D147">
-        <v>8.4779999999999994E-3</v>
+        <v>6.2399999999999999E-4</v>
       </c>
       <c r="E147">
         <v>2</v>
@@ -4528,13 +4638,13 @@
         <v>87</v>
       </c>
       <c r="B148" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C148" t="s">
         <v>6</v>
       </c>
       <c r="D148">
-        <v>4.542E-3</v>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="E148">
         <v>2</v>
@@ -4554,13 +4664,13 @@
         <v>87</v>
       </c>
       <c r="B149" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C149" t="s">
         <v>6</v>
       </c>
       <c r="D149">
-        <v>1.8995000000000001E-2</v>
+        <v>6.6600000000000003E-4</v>
       </c>
       <c r="E149">
         <v>2</v>
@@ -4580,13 +4690,13 @@
         <v>87</v>
       </c>
       <c r="B150" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C150" t="s">
         <v>6</v>
       </c>
       <c r="D150">
-        <v>8.3079999999999994E-3</v>
+        <v>4.0299999999999998E-4</v>
       </c>
       <c r="E150">
         <v>2</v>
@@ -4606,13 +4716,13 @@
         <v>87</v>
       </c>
       <c r="B151" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C151" t="s">
         <v>6</v>
       </c>
       <c r="D151">
-        <v>187.839733</v>
+        <v>7.0699999999999995E-4</v>
       </c>
       <c r="E151">
         <v>2</v>
@@ -4632,13 +4742,13 @@
         <v>87</v>
       </c>
       <c r="B152" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C152" t="s">
         <v>6</v>
       </c>
       <c r="D152">
-        <v>206.742651</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="E152">
         <v>2</v>
@@ -4658,13 +4768,13 @@
         <v>87</v>
       </c>
       <c r="B153" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C153" t="s">
         <v>6</v>
       </c>
       <c r="D153">
-        <v>3.0082000000000001E-2</v>
+        <v>7.4899999999999999E-4</v>
       </c>
       <c r="E153">
         <v>2</v>
@@ -4684,13 +4794,13 @@
         <v>87</v>
       </c>
       <c r="B154" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
       </c>
       <c r="D154">
-        <v>3.6971999999999998E-2</v>
+        <v>4.5100000000000001E-4</v>
       </c>
       <c r="E154">
         <v>2</v>
@@ -4710,13 +4820,13 @@
         <v>87</v>
       </c>
       <c r="B155" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C155" t="s">
         <v>6</v>
       </c>
       <c r="D155">
-        <v>196.67250300000001</v>
+        <v>7.8600000000000002E-4</v>
       </c>
       <c r="E155">
         <v>2</v>
@@ -4733,16 +4843,16 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>4.75E-4</v>
       </c>
       <c r="E156">
         <v>2</v>
@@ -4754,21 +4864,21 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C157" t="s">
         <v>6</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>8.2399999999999997E-4</v>
       </c>
       <c r="E157">
         <v>2</v>
@@ -4780,21 +4890,21 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
       </c>
       <c r="D158">
-        <v>1.2E-5</v>
+        <v>4.9799999999999996E-4</v>
       </c>
       <c r="E158">
         <v>2</v>
@@ -4806,21 +4916,21 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B159" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
       </c>
       <c r="D159">
-        <v>2.5000000000000001E-5</v>
+        <v>8.5999999999999998E-4</v>
       </c>
       <c r="E159">
         <v>2</v>
@@ -4832,21 +4942,21 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C160" t="s">
         <v>6</v>
       </c>
       <c r="D160">
-        <v>2.5000000000000001E-5</v>
+        <v>5.22E-4</v>
       </c>
       <c r="E160">
         <v>2</v>
@@ -4858,21 +4968,21 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B161" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C161" t="s">
         <v>6</v>
       </c>
       <c r="D161">
-        <v>5.1E-5</v>
+        <v>8.9599999999999999E-4</v>
       </c>
       <c r="E161">
         <v>2</v>
@@ -4884,21 +4994,21 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
       </c>
       <c r="D162">
-        <v>3.8000000000000002E-5</v>
+        <v>5.4600000000000004E-4</v>
       </c>
       <c r="E162">
         <v>2</v>
@@ -4910,21 +5020,21 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B163" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C163" t="s">
         <v>6</v>
       </c>
       <c r="D163">
-        <v>7.6000000000000004E-5</v>
+        <v>9.3999999999999997E-4</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -4936,21 +5046,21 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B164" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C164" t="s">
         <v>6</v>
       </c>
       <c r="D164">
-        <v>5.0000000000000002E-5</v>
+        <v>5.6999999999999998E-4</v>
       </c>
       <c r="E164">
         <v>2</v>
@@ -4962,21 +5072,21 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B165" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
       </c>
       <c r="D165">
-        <v>1.01E-4</v>
+        <v>9.8999999999999999E-4</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -4988,21 +5098,21 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B166" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
       </c>
       <c r="D166">
-        <v>6.3E-5</v>
+        <v>5.9299999999999999E-4</v>
       </c>
       <c r="E166">
         <v>2</v>
@@ -5014,21 +5124,21 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B167" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C167" t="s">
         <v>6</v>
       </c>
       <c r="D167">
-        <v>1.27E-4</v>
+        <v>1.078E-3</v>
       </c>
       <c r="E167">
         <v>2</v>
@@ -5040,21 +5150,21 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B168" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
       </c>
       <c r="D168">
-        <v>7.4999999999999993E-5</v>
+        <v>6.1700000000000004E-4</v>
       </c>
       <c r="E168">
         <v>2</v>
@@ -5066,21 +5176,21 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B169" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
       </c>
       <c r="D169">
-        <v>1.5200000000000001E-4</v>
+        <v>1.183E-3</v>
       </c>
       <c r="E169">
         <v>2</v>
@@ -5092,21 +5202,21 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B170" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
       </c>
       <c r="D170">
-        <v>8.7999999999999998E-5</v>
+        <v>6.4099999999999997E-4</v>
       </c>
       <c r="E170">
         <v>2</v>
@@ -5118,21 +5228,21 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B171" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
       </c>
       <c r="D171">
-        <v>1.7699999999999999E-4</v>
+        <v>1.292E-3</v>
       </c>
       <c r="E171">
         <v>2</v>
@@ -5144,21 +5254,21 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B172" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C172" t="s">
         <v>6</v>
       </c>
       <c r="D172">
-        <v>1E-4</v>
+        <v>6.6500000000000001E-4</v>
       </c>
       <c r="E172">
         <v>2</v>
@@ -5170,21 +5280,21 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B173" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C173" t="s">
         <v>6</v>
       </c>
       <c r="D173">
-        <v>2.03E-4</v>
+        <v>1.395E-3</v>
       </c>
       <c r="E173">
         <v>2</v>
@@ -5196,21 +5306,21 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B174" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
       </c>
       <c r="D174">
-        <v>1.13E-4</v>
+        <v>6.8800000000000003E-4</v>
       </c>
       <c r="E174">
         <v>2</v>
@@ -5222,21 +5332,21 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B175" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C175" t="s">
         <v>6</v>
       </c>
       <c r="D175">
-        <v>2.2800000000000001E-4</v>
+        <v>1.4970000000000001E-3</v>
       </c>
       <c r="E175">
         <v>2</v>
@@ -5248,21 +5358,21 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B176" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C176" t="s">
         <v>6</v>
       </c>
       <c r="D176">
-        <v>1.26E-4</v>
+        <v>7.1199999999999996E-4</v>
       </c>
       <c r="E176">
         <v>2</v>
@@ -5274,21 +5384,21 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B177" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
       </c>
       <c r="D177">
-        <v>2.5300000000000002E-4</v>
+        <v>1.606E-3</v>
       </c>
       <c r="E177">
         <v>2</v>
@@ -5300,21 +5410,21 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B178" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
       </c>
       <c r="D178">
-        <v>1.3799999999999999E-4</v>
+        <v>1.4109999999999999E-3</v>
       </c>
       <c r="E178">
         <v>2</v>
@@ -5326,21 +5436,21 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B179" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
       </c>
       <c r="D179">
-        <v>2.7900000000000001E-4</v>
+        <v>4.0870000000000004E-3</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -5352,21 +5462,21 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B180" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
       </c>
       <c r="D180">
-        <v>1.5100000000000001E-4</v>
+        <v>1.3849999999999999E-3</v>
       </c>
       <c r="E180">
         <v>2</v>
@@ -5378,21 +5488,21 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B181" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
       </c>
       <c r="D181">
-        <v>3.0400000000000002E-4</v>
+        <v>8.2730000000000008E-3</v>
       </c>
       <c r="E181">
         <v>2</v>
@@ -5404,21 +5514,21 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B182" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
       </c>
       <c r="D182">
-        <v>1.63E-4</v>
+        <v>209.63318899999999</v>
       </c>
       <c r="E182">
         <v>2</v>
@@ -5430,21 +5540,21 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B183" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
       </c>
       <c r="D183">
-        <v>3.2899999999999997E-4</v>
+        <v>8.4480000000000006E-3</v>
       </c>
       <c r="E183">
         <v>2</v>
@@ -5456,21 +5566,21 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B184" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
       </c>
       <c r="D184">
-        <v>1.76E-4</v>
+        <v>4.542E-3</v>
       </c>
       <c r="E184">
         <v>2</v>
@@ -5482,21 +5592,21 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B185" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
       </c>
       <c r="D185">
-        <v>3.5500000000000001E-4</v>
+        <v>1.8995000000000001E-2</v>
       </c>
       <c r="E185">
         <v>2</v>
@@ -5508,21 +5618,21 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B186" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
       </c>
       <c r="D186">
-        <v>1.8799999999999999E-4</v>
+        <v>8.3079999999999994E-3</v>
       </c>
       <c r="E186">
         <v>2</v>
@@ -5534,21 +5644,21 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B187" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
       </c>
       <c r="D187">
-        <v>3.8000000000000002E-4</v>
+        <v>189.37012999999999</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -5560,21 +5670,21 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B188" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
       </c>
       <c r="D188">
-        <v>2.0100000000000001E-4</v>
+        <v>217.02732499999999</v>
       </c>
       <c r="E188">
         <v>2</v>
@@ -5586,21 +5696,21 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B189" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
       </c>
       <c r="D189">
-        <v>4.0499999999999998E-4</v>
+        <v>3.0105E-2</v>
       </c>
       <c r="E189">
         <v>2</v>
@@ -5612,21 +5722,21 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B190" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
       </c>
       <c r="D190">
-        <v>2.13E-4</v>
+        <v>3.6986999999999999E-2</v>
       </c>
       <c r="E190">
         <v>2</v>
@@ -5638,21 +5748,21 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B191" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C191" t="s">
         <v>6</v>
       </c>
       <c r="D191">
-        <v>4.3100000000000001E-4</v>
+        <v>199.28742500000001</v>
       </c>
       <c r="E191">
         <v>2</v>
@@ -5664,21 +5774,21 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B192" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
       </c>
       <c r="D192">
-        <v>2.2599999999999999E-4</v>
+        <v>1.438E-3</v>
       </c>
       <c r="E192">
         <v>2</v>
@@ -5690,21 +5800,21 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B193" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
       </c>
       <c r="D193">
-        <v>4.5600000000000003E-4</v>
+        <v>8.2990000000000008E-3</v>
       </c>
       <c r="E193">
         <v>2</v>
@@ -5716,21 +5826,21 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B194" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
       </c>
       <c r="D194">
-        <v>2.3800000000000001E-4</v>
+        <v>1.4940000000000001E-3</v>
       </c>
       <c r="E194">
         <v>2</v>
@@ -5742,21 +5852,21 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B195" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
       </c>
       <c r="D195">
-        <v>4.8200000000000001E-4</v>
+        <v>8.4180000000000001E-3</v>
       </c>
       <c r="E195">
         <v>2</v>
@@ -5768,21 +5878,21 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B196" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C196" t="s">
         <v>6</v>
       </c>
       <c r="D196">
-        <v>2.5099999999999998E-4</v>
+        <v>1.529E-3</v>
       </c>
       <c r="E196">
         <v>2</v>
@@ -5794,21 +5904,21 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B197" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
       </c>
       <c r="D197">
-        <v>5.0600000000000005E-4</v>
+        <v>8.1720000000000004E-3</v>
       </c>
       <c r="E197">
         <v>2</v>
@@ -5820,21 +5930,21 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B198" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
       </c>
       <c r="D198">
-        <v>2.6400000000000002E-4</v>
+        <v>1.575E-3</v>
       </c>
       <c r="E198">
         <v>2</v>
@@ -5846,21 +5956,21 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B199" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C199" t="s">
         <v>6</v>
       </c>
       <c r="D199">
-        <v>5.2800000000000004E-4</v>
+        <v>7.6629999999999997E-3</v>
       </c>
       <c r="E199">
         <v>2</v>
@@ -5872,21 +5982,21 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B200" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C200" t="s">
         <v>6</v>
       </c>
       <c r="D200">
-        <v>2.7799999999999998E-4</v>
+        <v>2.1670000000000001E-3</v>
       </c>
       <c r="E200">
         <v>2</v>
@@ -5898,21 +6008,21 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B201" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
       </c>
       <c r="D201">
-        <v>5.5000000000000003E-4</v>
+        <v>7.7790000000000003E-3</v>
       </c>
       <c r="E201">
         <v>2</v>
@@ -5924,21 +6034,21 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B202" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
       </c>
       <c r="D202">
-        <v>3.0499999999999999E-4</v>
+        <v>2.6050000000000001E-3</v>
       </c>
       <c r="E202">
         <v>2</v>
@@ -5950,21 +6060,21 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B203" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
       </c>
       <c r="D203">
-        <v>5.7399999999999997E-4</v>
+        <v>8.7419999999999998E-3</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -5976,21 +6086,21 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B204" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
       </c>
       <c r="D204">
-        <v>3.2499999999999999E-4</v>
+        <v>1.7600000000000001E-3</v>
       </c>
       <c r="E204">
         <v>2</v>
@@ -6002,21 +6112,21 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B205" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
       </c>
       <c r="D205">
-        <v>6.02E-4</v>
+        <v>7.5399999999999998E-3</v>
       </c>
       <c r="E205">
         <v>2</v>
@@ -6028,21 +6138,21 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B206" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
       </c>
       <c r="D206">
-        <v>3.4499999999999998E-4</v>
+        <v>1.75E-3</v>
       </c>
       <c r="E206">
         <v>2</v>
@@ -6054,21 +6164,21 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B207" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
       </c>
       <c r="D207">
-        <v>6.4300000000000002E-4</v>
+        <v>8.3499999999999998E-3</v>
       </c>
       <c r="E207">
         <v>2</v>
@@ -6080,21 +6190,21 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B208" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
       </c>
       <c r="D208">
-        <v>3.6299999999999999E-4</v>
+        <v>1.9E-3</v>
       </c>
       <c r="E208">
         <v>2</v>
@@ -6106,21 +6216,21 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B209" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C209" t="s">
         <v>6</v>
       </c>
       <c r="D209">
-        <v>6.9099999999999999E-4</v>
+        <v>8.5450000000000005E-3</v>
       </c>
       <c r="E209">
         <v>2</v>
@@ -6132,21 +6242,21 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B210" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
       </c>
       <c r="D210">
-        <v>3.79E-4</v>
+        <v>205.44267099999999</v>
       </c>
       <c r="E210">
         <v>2</v>
@@ -6158,21 +6268,21 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B211" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
       </c>
       <c r="D211">
-        <v>7.4200000000000004E-4</v>
+        <v>8.6309999999999998E-3</v>
       </c>
       <c r="E211">
         <v>2</v>
@@ -6184,21 +6294,21 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B212" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
       </c>
       <c r="D212">
-        <v>4.0400000000000001E-4</v>
+        <v>209.792858</v>
       </c>
       <c r="E212">
         <v>2</v>
@@ -6210,21 +6320,21 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B213" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
       </c>
       <c r="D213">
-        <v>8.0900000000000004E-4</v>
+        <v>9.476E-3</v>
       </c>
       <c r="E213">
         <v>2</v>
@@ -6236,21 +6346,21 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B214" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
       </c>
       <c r="D214">
-        <v>4.4299999999999998E-4</v>
+        <v>2.5430000000000001E-3</v>
       </c>
       <c r="E214">
         <v>2</v>
@@ -6262,21 +6372,21 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B215" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
       </c>
       <c r="D215">
-        <v>8.8000000000000003E-4</v>
+        <v>1.0725E-2</v>
       </c>
       <c r="E215">
         <v>2</v>
@@ -6288,21 +6398,21 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B216" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
       </c>
       <c r="D216">
-        <v>5.0900000000000001E-4</v>
+        <v>3.6310000000000001E-3</v>
       </c>
       <c r="E216">
         <v>2</v>
@@ -6314,21 +6424,21 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B217" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
       </c>
       <c r="D217">
-        <v>9.6599999999999995E-4</v>
+        <v>1.1655E-2</v>
       </c>
       <c r="E217">
         <v>2</v>
@@ -6340,21 +6450,21 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B218" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
       </c>
       <c r="D218">
-        <v>8.2299999999999995E-4</v>
+        <v>209.95040399999999</v>
       </c>
       <c r="E218">
         <v>2</v>
@@ -6366,21 +6476,21 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B219" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
       </c>
       <c r="D219">
-        <v>3.362E-3</v>
+        <v>1.0637000000000001E-2</v>
       </c>
       <c r="E219">
         <v>2</v>
@@ -6392,21 +6502,21 @@
         <v>0</v>
       </c>
       <c r="H219">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B220" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="C220" t="s">
         <v>6</v>
       </c>
       <c r="D220">
-        <v>6.3100000000000005E-4</v>
+        <v>3.3310000000000002E-3</v>
       </c>
       <c r="E220">
         <v>2</v>
@@ -6418,21 +6528,21 @@
         <v>0</v>
       </c>
       <c r="H220">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B221" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="C221" t="s">
         <v>6</v>
       </c>
       <c r="D221">
-        <v>7.3080000000000003E-3</v>
+        <v>1.5478E-2</v>
       </c>
       <c r="E221">
         <v>2</v>
@@ -6444,21 +6554,21 @@
         <v>0</v>
       </c>
       <c r="H221">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B222" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
       </c>
       <c r="D222">
-        <v>11.162777</v>
+        <v>3.5370000000000002E-3</v>
       </c>
       <c r="E222">
         <v>2</v>
@@ -6470,21 +6580,21 @@
         <v>0</v>
       </c>
       <c r="H222">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B223" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
       </c>
       <c r="D223">
-        <v>28.009640000000001</v>
+        <v>1.6334999999999999E-2</v>
       </c>
       <c r="E223">
         <v>2</v>
@@ -6496,21 +6606,21 @@
         <v>0</v>
       </c>
       <c r="H223">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B224" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
       </c>
       <c r="D224">
-        <v>1.8979999999999999E-3</v>
+        <v>3.7330000000000002E-3</v>
       </c>
       <c r="E224">
         <v>2</v>
@@ -6522,21 +6632,21 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B225" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
       </c>
       <c r="D225">
-        <v>7.9319999999999998E-3</v>
+        <v>1.7295999999999999E-2</v>
       </c>
       <c r="E225">
         <v>2</v>
@@ -6548,21 +6658,21 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B226" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
       </c>
       <c r="D226">
-        <v>55.659027999999999</v>
+        <v>4.0169999999999997E-3</v>
       </c>
       <c r="E226">
         <v>2</v>
@@ -6574,21 +6684,21 @@
         <v>0</v>
       </c>
       <c r="H226">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B227" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
       </c>
       <c r="D227">
-        <v>13.418224</v>
+        <v>1.7062000000000001E-2</v>
       </c>
       <c r="E227">
         <v>2</v>
@@ -6600,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="H227">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -6608,13 +6718,13 @@
         <v>88</v>
       </c>
       <c r="B228" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
       </c>
       <c r="D228">
-        <v>13.864292000000001</v>
+        <v>0</v>
       </c>
       <c r="E228">
         <v>2</v>
@@ -6634,13 +6744,13 @@
         <v>88</v>
       </c>
       <c r="B229" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
       </c>
       <c r="D229">
-        <v>49.34966</v>
+        <v>0</v>
       </c>
       <c r="E229">
         <v>2</v>
@@ -6660,13 +6770,13 @@
         <v>88</v>
       </c>
       <c r="B230" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
       </c>
       <c r="D230">
-        <v>52.368177000000003</v>
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="E230">
         <v>2</v>
@@ -6686,24 +6796,2832 @@
         <v>88</v>
       </c>
       <c r="B231" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
+      </c>
+      <c r="F231">
+        <v>8</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>88</v>
+      </c>
+      <c r="B232" t="s">
+        <v>15</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="E232">
+        <v>2</v>
+      </c>
+      <c r="F232">
+        <v>8</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>88</v>
+      </c>
+      <c r="B233" t="s">
+        <v>16</v>
+      </c>
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233">
+        <v>5.1E-5</v>
+      </c>
+      <c r="E233">
+        <v>2</v>
+      </c>
+      <c r="F233">
+        <v>8</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>88</v>
+      </c>
+      <c r="B234" t="s">
+        <v>17</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234">
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="E234">
+        <v>2</v>
+      </c>
+      <c r="F234">
+        <v>8</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>88</v>
+      </c>
+      <c r="B235" t="s">
+        <v>18</v>
+      </c>
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235">
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="E235">
+        <v>2</v>
+      </c>
+      <c r="F235">
+        <v>8</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>88</v>
+      </c>
+      <c r="B236" t="s">
+        <v>19</v>
+      </c>
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="E236">
+        <v>2</v>
+      </c>
+      <c r="F236">
+        <v>8</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>88</v>
+      </c>
+      <c r="B237" t="s">
+        <v>20</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237">
+        <v>1.01E-4</v>
+      </c>
+      <c r="E237">
+        <v>2</v>
+      </c>
+      <c r="F237">
+        <v>8</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>88</v>
+      </c>
+      <c r="B238" t="s">
+        <v>21</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238">
+        <v>6.3E-5</v>
+      </c>
+      <c r="E238">
+        <v>2</v>
+      </c>
+      <c r="F238">
+        <v>8</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>88</v>
+      </c>
+      <c r="B239" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239">
+        <v>1.27E-4</v>
+      </c>
+      <c r="E239">
+        <v>2</v>
+      </c>
+      <c r="F239">
+        <v>8</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>88</v>
+      </c>
+      <c r="B240" t="s">
+        <v>23</v>
+      </c>
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240">
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="E240">
+        <v>2</v>
+      </c>
+      <c r="F240">
+        <v>8</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>88</v>
+      </c>
+      <c r="B241" t="s">
+        <v>24</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241">
+        <v>1.5200000000000001E-4</v>
+      </c>
+      <c r="E241">
+        <v>2</v>
+      </c>
+      <c r="F241">
+        <v>8</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>88</v>
+      </c>
+      <c r="B242" t="s">
+        <v>25</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242">
+        <v>8.7999999999999998E-5</v>
+      </c>
+      <c r="E242">
+        <v>2</v>
+      </c>
+      <c r="F242">
+        <v>8</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>88</v>
+      </c>
+      <c r="B243" t="s">
+        <v>26</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="E243">
+        <v>2</v>
+      </c>
+      <c r="F243">
+        <v>8</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>88</v>
+      </c>
+      <c r="B244" t="s">
+        <v>27</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244">
+        <v>1E-4</v>
+      </c>
+      <c r="E244">
+        <v>2</v>
+      </c>
+      <c r="F244">
+        <v>8</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>88</v>
+      </c>
+      <c r="B245" t="s">
+        <v>28</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245">
+        <v>2.03E-4</v>
+      </c>
+      <c r="E245">
+        <v>2</v>
+      </c>
+      <c r="F245">
+        <v>8</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>88</v>
+      </c>
+      <c r="B246" t="s">
+        <v>29</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246">
+        <v>1.13E-4</v>
+      </c>
+      <c r="E246">
+        <v>2</v>
+      </c>
+      <c r="F246">
+        <v>8</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>88</v>
+      </c>
+      <c r="B247" t="s">
+        <v>30</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247">
+        <v>2.2800000000000001E-4</v>
+      </c>
+      <c r="E247">
+        <v>2</v>
+      </c>
+      <c r="F247">
+        <v>8</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>88</v>
+      </c>
+      <c r="B248" t="s">
+        <v>31</v>
+      </c>
+      <c r="C248" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248">
+        <v>1.26E-4</v>
+      </c>
+      <c r="E248">
+        <v>2</v>
+      </c>
+      <c r="F248">
+        <v>8</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>88</v>
+      </c>
+      <c r="B249" t="s">
+        <v>32</v>
+      </c>
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249">
+        <v>2.5300000000000002E-4</v>
+      </c>
+      <c r="E249">
+        <v>2</v>
+      </c>
+      <c r="F249">
+        <v>8</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>88</v>
+      </c>
+      <c r="B250" t="s">
+        <v>33</v>
+      </c>
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="E250">
+        <v>2</v>
+      </c>
+      <c r="F250">
+        <v>8</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>88</v>
+      </c>
+      <c r="B251" t="s">
+        <v>34</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251">
+        <v>2.7900000000000001E-4</v>
+      </c>
+      <c r="E251">
+        <v>2</v>
+      </c>
+      <c r="F251">
+        <v>8</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>88</v>
+      </c>
+      <c r="B252" t="s">
+        <v>35</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252">
+        <v>1.5100000000000001E-4</v>
+      </c>
+      <c r="E252">
+        <v>2</v>
+      </c>
+      <c r="F252">
+        <v>8</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>88</v>
+      </c>
+      <c r="B253" t="s">
+        <v>36</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253">
+        <v>3.0400000000000002E-4</v>
+      </c>
+      <c r="E253">
+        <v>2</v>
+      </c>
+      <c r="F253">
+        <v>8</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>88</v>
+      </c>
+      <c r="B254" t="s">
+        <v>37</v>
+      </c>
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254">
+        <v>1.63E-4</v>
+      </c>
+      <c r="E254">
+        <v>2</v>
+      </c>
+      <c r="F254">
+        <v>8</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>88</v>
+      </c>
+      <c r="B255" t="s">
+        <v>38</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255">
+        <v>3.2899999999999997E-4</v>
+      </c>
+      <c r="E255">
+        <v>2</v>
+      </c>
+      <c r="F255">
+        <v>8</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>88</v>
+      </c>
+      <c r="B256" t="s">
+        <v>39</v>
+      </c>
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256">
+        <v>1.76E-4</v>
+      </c>
+      <c r="E256">
+        <v>2</v>
+      </c>
+      <c r="F256">
+        <v>8</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>88</v>
+      </c>
+      <c r="B257" t="s">
+        <v>40</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257">
+        <v>3.5500000000000001E-4</v>
+      </c>
+      <c r="E257">
+        <v>2</v>
+      </c>
+      <c r="F257">
+        <v>8</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>88</v>
+      </c>
+      <c r="B258" t="s">
+        <v>41</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258">
+        <v>1.8799999999999999E-4</v>
+      </c>
+      <c r="E258">
+        <v>2</v>
+      </c>
+      <c r="F258">
+        <v>8</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>88</v>
+      </c>
+      <c r="B259" t="s">
+        <v>42</v>
+      </c>
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="E259">
+        <v>2</v>
+      </c>
+      <c r="F259">
+        <v>8</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>88</v>
+      </c>
+      <c r="B260" t="s">
+        <v>43</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260">
+        <v>2.0100000000000001E-4</v>
+      </c>
+      <c r="E260">
+        <v>2</v>
+      </c>
+      <c r="F260">
+        <v>8</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>88</v>
+      </c>
+      <c r="B261" t="s">
+        <v>44</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261">
+        <v>4.0499999999999998E-4</v>
+      </c>
+      <c r="E261">
+        <v>2</v>
+      </c>
+      <c r="F261">
+        <v>8</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>88</v>
+      </c>
+      <c r="B262" t="s">
+        <v>45</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262">
+        <v>2.13E-4</v>
+      </c>
+      <c r="E262">
+        <v>2</v>
+      </c>
+      <c r="F262">
+        <v>8</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>88</v>
+      </c>
+      <c r="B263" t="s">
+        <v>46</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263">
+        <v>4.3100000000000001E-4</v>
+      </c>
+      <c r="E263">
+        <v>2</v>
+      </c>
+      <c r="F263">
+        <v>8</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>88</v>
+      </c>
+      <c r="B264" t="s">
+        <v>47</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264">
+        <v>2.2599999999999999E-4</v>
+      </c>
+      <c r="E264">
+        <v>2</v>
+      </c>
+      <c r="F264">
+        <v>8</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>88</v>
+      </c>
+      <c r="B265" t="s">
+        <v>48</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265">
+        <v>4.5600000000000003E-4</v>
+      </c>
+      <c r="E265">
+        <v>2</v>
+      </c>
+      <c r="F265">
+        <v>8</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>88</v>
+      </c>
+      <c r="B266" t="s">
+        <v>49</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266">
+        <v>2.3800000000000001E-4</v>
+      </c>
+      <c r="E266">
+        <v>2</v>
+      </c>
+      <c r="F266">
+        <v>8</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>88</v>
+      </c>
+      <c r="B267" t="s">
+        <v>50</v>
+      </c>
+      <c r="C267" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267">
+        <v>4.8200000000000001E-4</v>
+      </c>
+      <c r="E267">
+        <v>2</v>
+      </c>
+      <c r="F267">
+        <v>8</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>88</v>
+      </c>
+      <c r="B268" t="s">
+        <v>51</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268">
+        <v>2.5099999999999998E-4</v>
+      </c>
+      <c r="E268">
+        <v>2</v>
+      </c>
+      <c r="F268">
+        <v>8</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>88</v>
+      </c>
+      <c r="B269" t="s">
+        <v>52</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269">
+        <v>5.0600000000000005E-4</v>
+      </c>
+      <c r="E269">
+        <v>2</v>
+      </c>
+      <c r="F269">
+        <v>8</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>88</v>
+      </c>
+      <c r="B270" t="s">
+        <v>53</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270">
+        <v>2.6400000000000002E-4</v>
+      </c>
+      <c r="E270">
+        <v>2</v>
+      </c>
+      <c r="F270">
+        <v>8</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>88</v>
+      </c>
+      <c r="B271" t="s">
+        <v>54</v>
+      </c>
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271">
+        <v>5.2800000000000004E-4</v>
+      </c>
+      <c r="E271">
+        <v>2</v>
+      </c>
+      <c r="F271">
+        <v>8</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>88</v>
+      </c>
+      <c r="B272" t="s">
+        <v>55</v>
+      </c>
+      <c r="C272" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="E272">
+        <v>2</v>
+      </c>
+      <c r="F272">
+        <v>8</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>88</v>
+      </c>
+      <c r="B273" t="s">
+        <v>56</v>
+      </c>
+      <c r="C273" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="E273">
+        <v>2</v>
+      </c>
+      <c r="F273">
+        <v>8</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>88</v>
+      </c>
+      <c r="B274" t="s">
+        <v>57</v>
+      </c>
+      <c r="C274" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="E274">
+        <v>2</v>
+      </c>
+      <c r="F274">
+        <v>8</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>88</v>
+      </c>
+      <c r="B275" t="s">
+        <v>58</v>
+      </c>
+      <c r="C275" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275">
+        <v>5.7399999999999997E-4</v>
+      </c>
+      <c r="E275">
+        <v>2</v>
+      </c>
+      <c r="F275">
+        <v>8</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>88</v>
+      </c>
+      <c r="B276" t="s">
+        <v>59</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276">
+        <v>3.2499999999999999E-4</v>
+      </c>
+      <c r="E276">
+        <v>2</v>
+      </c>
+      <c r="F276">
+        <v>8</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>88</v>
+      </c>
+      <c r="B277" t="s">
+        <v>60</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277">
+        <v>6.02E-4</v>
+      </c>
+      <c r="E277">
+        <v>2</v>
+      </c>
+      <c r="F277">
+        <v>8</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>88</v>
+      </c>
+      <c r="B278" t="s">
+        <v>61</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278">
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="E278">
+        <v>2</v>
+      </c>
+      <c r="F278">
+        <v>8</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>88</v>
+      </c>
+      <c r="B279" t="s">
+        <v>62</v>
+      </c>
+      <c r="C279" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279">
+        <v>6.4300000000000002E-4</v>
+      </c>
+      <c r="E279">
+        <v>2</v>
+      </c>
+      <c r="F279">
+        <v>8</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>88</v>
+      </c>
+      <c r="B280" t="s">
+        <v>63</v>
+      </c>
+      <c r="C280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280">
+        <v>3.6299999999999999E-4</v>
+      </c>
+      <c r="E280">
+        <v>2</v>
+      </c>
+      <c r="F280">
+        <v>8</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>88</v>
+      </c>
+      <c r="B281" t="s">
+        <v>64</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281">
+        <v>6.9099999999999999E-4</v>
+      </c>
+      <c r="E281">
+        <v>2</v>
+      </c>
+      <c r="F281">
+        <v>8</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>88</v>
+      </c>
+      <c r="B282" t="s">
+        <v>65</v>
+      </c>
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282">
+        <v>3.79E-4</v>
+      </c>
+      <c r="E282">
+        <v>2</v>
+      </c>
+      <c r="F282">
+        <v>8</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>88</v>
+      </c>
+      <c r="B283" t="s">
+        <v>66</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283">
+        <v>7.4200000000000004E-4</v>
+      </c>
+      <c r="E283">
+        <v>2</v>
+      </c>
+      <c r="F283">
+        <v>8</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>88</v>
+      </c>
+      <c r="B284" t="s">
+        <v>67</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284">
+        <v>4.0400000000000001E-4</v>
+      </c>
+      <c r="E284">
+        <v>2</v>
+      </c>
+      <c r="F284">
+        <v>8</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>88</v>
+      </c>
+      <c r="B285" t="s">
+        <v>68</v>
+      </c>
+      <c r="C285" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285">
+        <v>8.0900000000000004E-4</v>
+      </c>
+      <c r="E285">
+        <v>2</v>
+      </c>
+      <c r="F285">
+        <v>8</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>88</v>
+      </c>
+      <c r="B286" t="s">
+        <v>69</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286">
+        <v>4.4299999999999998E-4</v>
+      </c>
+      <c r="E286">
+        <v>2</v>
+      </c>
+      <c r="F286">
+        <v>8</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>88</v>
+      </c>
+      <c r="B287" t="s">
+        <v>70</v>
+      </c>
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="E287">
+        <v>2</v>
+      </c>
+      <c r="F287">
+        <v>8</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>88</v>
+      </c>
+      <c r="B288" t="s">
+        <v>71</v>
+      </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288">
+        <v>5.0900000000000001E-4</v>
+      </c>
+      <c r="E288">
+        <v>2</v>
+      </c>
+      <c r="F288">
+        <v>8</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>88</v>
+      </c>
+      <c r="B289" t="s">
+        <v>72</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289">
+        <v>9.6599999999999995E-4</v>
+      </c>
+      <c r="E289">
+        <v>2</v>
+      </c>
+      <c r="F289">
+        <v>8</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>88</v>
+      </c>
+      <c r="B290" t="s">
+        <v>73</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290">
+        <v>8.2299999999999995E-4</v>
+      </c>
+      <c r="E290">
+        <v>2</v>
+      </c>
+      <c r="F290">
+        <v>8</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>88</v>
+      </c>
+      <c r="B291" t="s">
+        <v>74</v>
+      </c>
+      <c r="C291" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291">
+        <v>3.362E-3</v>
+      </c>
+      <c r="E291">
+        <v>2</v>
+      </c>
+      <c r="F291">
+        <v>8</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>88</v>
+      </c>
+      <c r="B292" t="s">
+        <v>75</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292">
+        <v>6.3100000000000005E-4</v>
+      </c>
+      <c r="E292">
+        <v>2</v>
+      </c>
+      <c r="F292">
+        <v>8</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>88</v>
+      </c>
+      <c r="B293" t="s">
+        <v>76</v>
+      </c>
+      <c r="C293" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293">
+        <v>7.3080000000000003E-3</v>
+      </c>
+      <c r="E293">
+        <v>2</v>
+      </c>
+      <c r="F293">
+        <v>8</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>88</v>
+      </c>
+      <c r="B294" t="s">
+        <v>77</v>
+      </c>
+      <c r="C294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294">
+        <v>11.059823</v>
+      </c>
+      <c r="E294">
+        <v>2</v>
+      </c>
+      <c r="F294">
+        <v>8</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>88</v>
+      </c>
+      <c r="B295" t="s">
+        <v>78</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295">
+        <v>35.261778999999997</v>
+      </c>
+      <c r="E295">
+        <v>2</v>
+      </c>
+      <c r="F295">
+        <v>8</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>88</v>
+      </c>
+      <c r="B296" t="s">
+        <v>79</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296">
+        <v>1.8979999999999999E-3</v>
+      </c>
+      <c r="E296">
+        <v>2</v>
+      </c>
+      <c r="F296">
+        <v>8</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>88</v>
+      </c>
+      <c r="B297" t="s">
+        <v>80</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297">
+        <v>7.9310000000000005E-3</v>
+      </c>
+      <c r="E297">
+        <v>2</v>
+      </c>
+      <c r="F297">
+        <v>8</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>88</v>
+      </c>
+      <c r="B298" t="s">
+        <v>81</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298">
+        <v>57.642209999999999</v>
+      </c>
+      <c r="E298">
+        <v>2</v>
+      </c>
+      <c r="F298">
+        <v>8</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>88</v>
+      </c>
+      <c r="B299" t="s">
+        <v>82</v>
+      </c>
+      <c r="C299" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299">
+        <v>13.263807999999999</v>
+      </c>
+      <c r="E299">
+        <v>2</v>
+      </c>
+      <c r="F299">
+        <v>8</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>88</v>
+      </c>
+      <c r="B300" t="s">
+        <v>83</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300">
+        <v>17.125969999999999</v>
+      </c>
+      <c r="E300">
+        <v>2</v>
+      </c>
+      <c r="F300">
+        <v>8</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>88</v>
+      </c>
+      <c r="B301" t="s">
+        <v>84</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301">
+        <v>50.443924000000003</v>
+      </c>
+      <c r="E301">
+        <v>2</v>
+      </c>
+      <c r="F301">
+        <v>8</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>88</v>
+      </c>
+      <c r="B302" t="s">
+        <v>85</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302">
+        <v>52.987819999999999</v>
+      </c>
+      <c r="E302">
+        <v>2</v>
+      </c>
+      <c r="F302">
+        <v>8</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>88</v>
+      </c>
+      <c r="B303" t="s">
         <v>86</v>
       </c>
-      <c r="C231" t="s">
-        <v>6</v>
-      </c>
-      <c r="D231">
-        <v>6.7149599999999996</v>
-      </c>
-      <c r="E231">
-        <v>2</v>
-      </c>
-      <c r="F231">
-        <v>8</v>
-      </c>
-      <c r="G231">
-        <v>0</v>
-      </c>
-      <c r="H231">
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303">
+        <v>12.418286999999999</v>
+      </c>
+      <c r="E303">
+        <v>2</v>
+      </c>
+      <c r="F303">
+        <v>8</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>88</v>
+      </c>
+      <c r="B304" t="s">
+        <v>89</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304">
+        <v>6.3699999999999998E-4</v>
+      </c>
+      <c r="E304">
+        <v>2</v>
+      </c>
+      <c r="F304">
+        <v>8</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>88</v>
+      </c>
+      <c r="B305" t="s">
+        <v>90</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305">
+        <v>7.2639999999999996E-3</v>
+      </c>
+      <c r="E305">
+        <v>2</v>
+      </c>
+      <c r="F305">
+        <v>8</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>88</v>
+      </c>
+      <c r="B306" t="s">
+        <v>91</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306">
+        <v>6.4199999999999999E-4</v>
+      </c>
+      <c r="E306">
+        <v>2</v>
+      </c>
+      <c r="F306">
+        <v>8</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>88</v>
+      </c>
+      <c r="B307" t="s">
+        <v>92</v>
+      </c>
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307">
+        <v>7.2909999999999997E-3</v>
+      </c>
+      <c r="E307">
+        <v>2</v>
+      </c>
+      <c r="F307">
+        <v>8</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>88</v>
+      </c>
+      <c r="B308" t="s">
+        <v>93</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308">
+        <v>6.4400000000000004E-4</v>
+      </c>
+      <c r="E308">
+        <v>2</v>
+      </c>
+      <c r="F308">
+        <v>8</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>88</v>
+      </c>
+      <c r="B309" t="s">
+        <v>94</v>
+      </c>
+      <c r="C309" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309">
+        <v>6.8320000000000004E-3</v>
+      </c>
+      <c r="E309">
+        <v>2</v>
+      </c>
+      <c r="F309">
+        <v>8</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="H309">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>88</v>
+      </c>
+      <c r="B310" t="s">
+        <v>95</v>
+      </c>
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310">
+        <v>6.4599999999999998E-4</v>
+      </c>
+      <c r="E310">
+        <v>2</v>
+      </c>
+      <c r="F310">
+        <v>8</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>88</v>
+      </c>
+      <c r="B311" t="s">
+        <v>96</v>
+      </c>
+      <c r="C311" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311">
+        <v>6.0229999999999997E-3</v>
+      </c>
+      <c r="E311">
+        <v>2</v>
+      </c>
+      <c r="F311">
+        <v>8</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>88</v>
+      </c>
+      <c r="B312" t="s">
+        <v>97</v>
+      </c>
+      <c r="C312" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312">
+        <v>1.1789999999999999E-3</v>
+      </c>
+      <c r="E312">
+        <v>2</v>
+      </c>
+      <c r="F312">
+        <v>8</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>88</v>
+      </c>
+      <c r="B313" t="s">
+        <v>98</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313">
+        <v>6.1190000000000003E-3</v>
+      </c>
+      <c r="E313">
+        <v>2</v>
+      </c>
+      <c r="F313">
+        <v>8</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>88</v>
+      </c>
+      <c r="B314" t="s">
+        <v>99</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314">
+        <v>1.5989999999999999E-3</v>
+      </c>
+      <c r="E314">
+        <v>2</v>
+      </c>
+      <c r="F314">
+        <v>8</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>88</v>
+      </c>
+      <c r="B315" t="s">
+        <v>100</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315">
+        <v>6.9410000000000001E-3</v>
+      </c>
+      <c r="E315">
+        <v>2</v>
+      </c>
+      <c r="F315">
+        <v>8</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>88</v>
+      </c>
+      <c r="B316" t="s">
+        <v>101</v>
+      </c>
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316">
+        <v>6.8099999999999996E-4</v>
+      </c>
+      <c r="E316">
+        <v>2</v>
+      </c>
+      <c r="F316">
+        <v>8</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>88</v>
+      </c>
+      <c r="B317" t="s">
+        <v>102</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317">
+        <v>5.5389999999999997E-3</v>
+      </c>
+      <c r="E317">
+        <v>2</v>
+      </c>
+      <c r="F317">
+        <v>8</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>88</v>
+      </c>
+      <c r="B318" t="s">
+        <v>103</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318">
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="E318">
+        <v>2</v>
+      </c>
+      <c r="F318">
+        <v>8</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>88</v>
+      </c>
+      <c r="B319" t="s">
+        <v>104</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319">
+        <v>6.1520000000000004E-3</v>
+      </c>
+      <c r="E319">
+        <v>2</v>
+      </c>
+      <c r="F319">
+        <v>8</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>88</v>
+      </c>
+      <c r="B320" t="s">
+        <v>105</v>
+      </c>
+      <c r="C320" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320">
+        <v>7.0799999999999997E-4</v>
+      </c>
+      <c r="E320">
+        <v>2</v>
+      </c>
+      <c r="F320">
+        <v>8</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>88</v>
+      </c>
+      <c r="B321" t="s">
+        <v>106</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321">
+        <v>6.051E-3</v>
+      </c>
+      <c r="E321">
+        <v>2</v>
+      </c>
+      <c r="F321">
+        <v>8</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>88</v>
+      </c>
+      <c r="B322" t="s">
+        <v>107</v>
+      </c>
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322">
+        <v>13.953656000000001</v>
+      </c>
+      <c r="E322">
+        <v>2</v>
+      </c>
+      <c r="F322">
+        <v>8</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>88</v>
+      </c>
+      <c r="B323" t="s">
+        <v>108</v>
+      </c>
+      <c r="C323" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323">
+        <v>27.626028999999999</v>
+      </c>
+      <c r="E323">
+        <v>2</v>
+      </c>
+      <c r="F323">
+        <v>8</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>88</v>
+      </c>
+      <c r="B324" t="s">
+        <v>109</v>
+      </c>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324">
+        <v>11.333137000000001</v>
+      </c>
+      <c r="E324">
+        <v>2</v>
+      </c>
+      <c r="F324">
+        <v>8</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>88</v>
+      </c>
+      <c r="B325" t="s">
+        <v>110</v>
+      </c>
+      <c r="C325" t="s">
+        <v>6</v>
+      </c>
+      <c r="D325">
+        <v>33.134614999999997</v>
+      </c>
+      <c r="E325">
+        <v>2</v>
+      </c>
+      <c r="F325">
+        <v>8</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>88</v>
+      </c>
+      <c r="B326" t="s">
+        <v>111</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326">
+        <v>9.9200000000000004E-4</v>
+      </c>
+      <c r="E326">
+        <v>2</v>
+      </c>
+      <c r="F326">
+        <v>8</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>88</v>
+      </c>
+      <c r="B327" t="s">
+        <v>112</v>
+      </c>
+      <c r="C327" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327">
+        <v>6.496E-3</v>
+      </c>
+      <c r="E327">
+        <v>2</v>
+      </c>
+      <c r="F327">
+        <v>8</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>88</v>
+      </c>
+      <c r="B328" t="s">
+        <v>113</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328">
+        <v>1.98E-3</v>
+      </c>
+      <c r="E328">
+        <v>2</v>
+      </c>
+      <c r="F328">
+        <v>8</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>88</v>
+      </c>
+      <c r="B329" t="s">
+        <v>114</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329">
+        <v>6.1989999999999996E-3</v>
+      </c>
+      <c r="E329">
+        <v>2</v>
+      </c>
+      <c r="F329">
+        <v>8</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+      <c r="H329">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>88</v>
+      </c>
+      <c r="B330" t="s">
+        <v>115</v>
+      </c>
+      <c r="C330" t="s">
+        <v>6</v>
+      </c>
+      <c r="D330">
+        <v>16.009575000000002</v>
+      </c>
+      <c r="E330">
+        <v>2</v>
+      </c>
+      <c r="F330">
+        <v>8</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>88</v>
+      </c>
+      <c r="B331" t="s">
+        <v>116</v>
+      </c>
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331">
+        <v>31.906298</v>
+      </c>
+      <c r="E331">
+        <v>2</v>
+      </c>
+      <c r="F331">
+        <v>8</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+      <c r="H331">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>88</v>
+      </c>
+      <c r="B332" t="s">
+        <v>117</v>
+      </c>
+      <c r="C332" t="s">
+        <v>6</v>
+      </c>
+      <c r="D332">
+        <v>1.4419999999999999E-3</v>
+      </c>
+      <c r="E332">
+        <v>2</v>
+      </c>
+      <c r="F332">
+        <v>8</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="H332">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>88</v>
+      </c>
+      <c r="B333" t="s">
+        <v>118</v>
+      </c>
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333">
+        <v>7.0530000000000002E-3</v>
+      </c>
+      <c r="E333">
+        <v>2</v>
+      </c>
+      <c r="F333">
+        <v>8</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>88</v>
+      </c>
+      <c r="B334" t="s">
+        <v>119</v>
+      </c>
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
+      <c r="D334">
+        <v>1.4829999999999999E-3</v>
+      </c>
+      <c r="E334">
+        <v>2</v>
+      </c>
+      <c r="F334">
+        <v>8</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>88</v>
+      </c>
+      <c r="B335" t="s">
+        <v>120</v>
+      </c>
+      <c r="C335" t="s">
+        <v>6</v>
+      </c>
+      <c r="D335">
+        <v>7.4400000000000004E-3</v>
+      </c>
+      <c r="E335">
+        <v>2</v>
+      </c>
+      <c r="F335">
+        <v>8</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="H335">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>88</v>
+      </c>
+      <c r="B336" t="s">
+        <v>121</v>
+      </c>
+      <c r="C336" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336">
+        <v>1.4940000000000001E-3</v>
+      </c>
+      <c r="E336">
+        <v>2</v>
+      </c>
+      <c r="F336">
+        <v>8</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+      <c r="H336">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>88</v>
+      </c>
+      <c r="B337" t="s">
+        <v>122</v>
+      </c>
+      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337">
+        <v>7.8289999999999992E-3</v>
+      </c>
+      <c r="E337">
+        <v>2</v>
+      </c>
+      <c r="F337">
+        <v>8</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+      <c r="H337">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>88</v>
+      </c>
+      <c r="B338" t="s">
+        <v>123</v>
+      </c>
+      <c r="C338" t="s">
+        <v>6</v>
+      </c>
+      <c r="D338">
+        <v>1.498E-3</v>
+      </c>
+      <c r="E338">
+        <v>2</v>
+      </c>
+      <c r="F338">
+        <v>8</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>88</v>
+      </c>
+      <c r="B339" t="s">
+        <v>124</v>
+      </c>
+      <c r="C339" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339">
+        <v>7.8270000000000006E-3</v>
+      </c>
+      <c r="E339">
+        <v>2</v>
+      </c>
+      <c r="F339">
+        <v>8</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+      <c r="H339">
         <v>6</v>
       </c>
     </row>
